--- a/Teeny Weeny BOM.xlsx
+++ b/Teeny Weeny BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\26-1_fea\Documents\Reilly_Projects\Teeny Weeny\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED5D230-3070-4CD8-BEA6-43113B4594E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E27D29-EAF8-4A6A-844F-5C3A999DB959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Amazon</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>https://s.click.aliexpress.com/e/_DBPBTXJ</t>
-  </si>
-  <si>
-    <t>https://s.click.aliexpress.com/e/_DB4U4JB</t>
   </si>
   <si>
     <t>https://s.click.aliexpress.com/e/_DeHjOz3</t>
@@ -69,9 +66,6 @@
   </si>
   <si>
     <t>https://s.click.aliexpress.com/e/_DdVhkQl</t>
-  </si>
-  <si>
-    <t>Feet</t>
   </si>
   <si>
     <t>Extruder + Hotend</t>
@@ -111,9 +105,6 @@
   </si>
   <si>
     <t>https://s.click.aliexpress.com/e/_DClRklL</t>
-  </si>
-  <si>
-    <t>https://s.click.aliexpress.com/e/_Dl82U81</t>
   </si>
   <si>
     <t>https://s.click.aliexpress.com/e/_DCciStb</t>
@@ -186,9 +177,6 @@
     <t>PC4-M6 pneumatic fitting</t>
   </si>
   <si>
-    <t>6 - M3 x 25mm for Effector Arms</t>
-  </si>
-  <si>
     <t>12 - M3 x 20mm for motor mounting</t>
   </si>
   <si>
@@ -205,12 +193,6 @@
   </si>
   <si>
     <t>Borosilicate glass disk</t>
-  </si>
-  <si>
-    <t>40 - M3 x 8mm (a pack of 50 will probably be enough)</t>
-  </si>
-  <si>
-    <t>40 - M3 nuts</t>
   </si>
   <si>
     <t>https://boltdepot.com/Metric_socket_cap_Stainless_steel_18-8_(A-2)_3mm_x_0.5mm</t>
@@ -240,12 +222,6 @@
     <t>Amazon.com: MECCANIXITY Carbon Fiber Rod, 3mm x 100mm for RC Plane DIY Tool Wing Tube Quadcopter Arm, Pack of 12 : Industrial &amp; Scientific</t>
   </si>
   <si>
-    <t>6 x 6mmID 8mm OD 65mm long carbon fiber tubes for arms</t>
-  </si>
-  <si>
-    <t>3 x 70mm length 3mm diameter carbon fiber rods for carriage joint pins</t>
-  </si>
-  <si>
     <t>Amazon.com: ARRIS 330mm 6mm x 8mm x 330mm Carbon Fiber Tubes Matte Surface 3K Roll Wrapped 100% Pure Pultruded Carbon Tubing for Quadcopter Multicopter (2PCS) : Industrial &amp; Scientific</t>
   </si>
   <si>
@@ -273,16 +249,7 @@
     <t>https://www.amazon.com/dp/B088HGQSZT?psc=1&amp;ref=ppx_yo2ov_dt_b_product_details</t>
   </si>
   <si>
-    <t>M2.5 standoffs and fasteners for electornics</t>
-  </si>
-  <si>
     <t>DYWISHKEY 320 Pieces Male Female Hex Brass Spacer Standoff Screw Nut Assortment Kit (M2.5): Amazon.com: Industrial &amp; Scientific</t>
-  </si>
-  <si>
-    <t>M2 x 6 SHCS for rails</t>
-  </si>
-  <si>
-    <t>M2 nuts for rails</t>
   </si>
   <si>
     <t>Bolt Depot - Metric socket cap, Stainless steel 18-8 (A-2), 2mm x 0.4mm</t>
@@ -292,6 +259,54 @@
   </si>
   <si>
     <t>6 x MGN7H 200mm Z2 preload linear rails</t>
+  </si>
+  <si>
+    <t>8 - M3x30mm for tensioners and door</t>
+  </si>
+  <si>
+    <t>66 - M2 x 6 SHCS for rails and carriages</t>
+  </si>
+  <si>
+    <t>58 - M2 nuts for rails</t>
+  </si>
+  <si>
+    <t>6 x 6mm ID 8mm OD 65mm long carbon fiber tubes for arms (Cut from longer tube)</t>
+  </si>
+  <si>
+    <t>3 x 70mm length 3mm diameter carbon fiber rods for carriage joint pins (cut from longer rod)</t>
+  </si>
+  <si>
+    <t>6 - M3 0.5mm shim washers for idler bearing stacks</t>
+  </si>
+  <si>
+    <t>Rubber feet</t>
+  </si>
+  <si>
+    <t>4010 fan for Raspberry Pi cooling (optional)</t>
+  </si>
+  <si>
+    <t>Amazon.com: Noctua NF-A4x10 5V, Premium Quiet Fan, 3-Pin, 5V Version (40x10mm, Brown) : Electronics</t>
+  </si>
+  <si>
+    <t>Amazon.com: MakerBeam XL Clear Anodized Beams 300x15x15mm 4 Pieces : Industrial &amp; Scientific</t>
+  </si>
+  <si>
+    <t>Amazon.com: MakerBeam XL Clear Anodized Beams 50x15x15mm (103374) 4 Pieces x 2 and 100x15x15mm (103385) 4 Pieces x 2 : Industrial &amp; Scientific</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/2251832808824051.html?pdp_npi=4%40dis%21USD%21US%20%243.99%21US%20%243.99%21%21%213.99%213.99%21%402101e89317232276053941418d89ca%2112000027231341321%21sh01%21US%213164753953%21X&amp;spm=a2g0o.store_pc_home.productList_2004693608109.32995138803&amp;gatewayAdapt=glo2usa</t>
+  </si>
+  <si>
+    <t>82 - M3 x 8mm (a pack of 100 will probably be enough)</t>
+  </si>
+  <si>
+    <t>40 - M3 nuts (for screws into extrusion slots)</t>
+  </si>
+  <si>
+    <t>6 - M3 x 25mm for Effector Arms (Must be SHCS for clearances to work)</t>
+  </si>
+  <si>
+    <t>M2.5 standoffs and fasteners for electornics and effector</t>
   </si>
 </sst>
 </file>
@@ -695,10 +710,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1018"/>
+  <dimension ref="A1:Z1021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -713,13 +728,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
@@ -777,14 +792,18 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="9">
+        <v>15</v>
+      </c>
       <c r="C3" s="10"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="E3" s="26" t="s">
+        <v>77</v>
+      </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -809,12 +828,16 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9">
+        <v>25</v>
+      </c>
       <c r="C4" s="10"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="E4" s="26" t="s">
+        <v>78</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -839,7 +862,7 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
@@ -867,7 +890,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="7"/>
       <c r="C6" s="4"/>
@@ -935,7 +958,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="26" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -961,11 +984,11 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="13" t="s">
-        <v>5</v>
+      <c r="C9" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -991,9 +1014,9 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="13"/>
@@ -1023,11 +1046,11 @@
     </row>
     <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1055,15 +1078,15 @@
     </row>
     <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1089,13 +1112,13 @@
     </row>
     <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="14"/>
       <c r="D13" s="8"/>
       <c r="E13" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1120,13 +1143,13 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="14"/>
       <c r="D14" s="8"/>
       <c r="E14" s="26" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1151,13 +1174,13 @@
     </row>
     <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="14"/>
       <c r="D15" s="8"/>
       <c r="E15" s="26" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1182,11 +1205,11 @@
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="26" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="26"/>
@@ -1241,7 +1264,7 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="4"/>
@@ -1271,11 +1294,11 @@
     </row>
     <row r="19" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1301,9 +1324,9 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="8"/>
@@ -1331,9 +1354,9 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="8"/>
@@ -1363,7 +1386,7 @@
     </row>
     <row r="22" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="8"/>
@@ -1393,16 +1416,12 @@
     </row>
     <row r="23" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="26" t="s">
-        <v>65</v>
-      </c>
+      <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -1427,13 +1446,15 @@
     </row>
     <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B24" s="15"/>
-      <c r="C24" s="12"/>
+      <c r="C24" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -1459,13 +1480,13 @@
     </row>
     <row r="25" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="12"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="25" t="s">
-        <v>71</v>
+      <c r="E25" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -1491,14 +1512,12 @@
     </row>
     <row r="26" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="12"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="26" t="s">
-        <v>73</v>
-      </c>
+      <c r="E26" s="26"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -1526,11 +1545,11 @@
         <v>74</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="C27" s="26" t="s">
-        <v>76</v>
+      <c r="C27" s="12"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="25" t="s">
+        <v>63</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="26"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -1555,12 +1574,14 @@
     </row>
     <row r="28" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="12"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="26"/>
+      <c r="E28" s="26" t="s">
+        <v>64</v>
+      </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -1584,134 +1605,132 @@
       <c r="Z28" s="8"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>13</v>
+      <c r="A29" s="8" t="s">
+        <v>69</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
-        <v>14</v>
+      <c r="B29" s="15"/>
+      <c r="C29" s="26" t="s">
+        <v>65</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12" t="s">
-        <v>15</v>
+      <c r="D29" s="8"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+    </row>
+    <row r="30" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>70</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-    </row>
-    <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>16</v>
+      <c r="B30" s="15"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+    </row>
+    <row r="31" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>11</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
     </row>
     <row r="33" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>41</v>
+      <c r="A33" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="B33" s="11"/>
-      <c r="C33" s="26" t="s">
-        <v>59</v>
+      <c r="C33" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1739,11 +1758,11 @@
     </row>
     <row r="34" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B34" s="11"/>
-      <c r="C34" s="26" t="s">
-        <v>55</v>
+      <c r="C34" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1771,14 +1790,14 @@
     </row>
     <row r="35" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B35" s="11"/>
-      <c r="C35" s="26"/>
+      <c r="C35" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="D35" s="8"/>
-      <c r="E35" s="26" t="s">
-        <v>68</v>
-      </c>
+      <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -1802,265 +1821,263 @@
       <c r="Z35" s="8"/>
     </row>
     <row r="36" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-    </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+    </row>
+    <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+    </row>
+    <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+    </row>
+    <row r="40" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="15">
+        <v>23.18</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+    </row>
+    <row r="41" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="15">
+        <v>50</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+    </row>
+    <row r="44" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-    </row>
-    <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="15">
-        <v>23.18</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-    </row>
-    <row r="39" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="15">
-        <v>50</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-    </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="16"/>
-    </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-    </row>
-    <row r="43" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-    </row>
-    <row r="44" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="D44" s="8"/>
-      <c r="E44" s="26" t="s">
-        <v>64</v>
-      </c>
+      <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -2085,10 +2102,12 @@
     </row>
     <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="12"/>
+      <c r="C45" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -2114,15 +2133,17 @@
       <c r="Z45" s="8"/>
     </row>
     <row r="46" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>45</v>
+      <c r="A46" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="E46" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -2147,12 +2168,10 @@
     </row>
     <row r="47" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="C47" s="12"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -2179,14 +2198,12 @@
     </row>
     <row r="48" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="12"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="26" t="s">
-        <v>69</v>
-      </c>
+      <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -2210,98 +2227,100 @@
       <c r="Z48" s="8"/>
     </row>
     <row r="49" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
+      <c r="A49" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
     </row>
     <row r="50" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
-        <v>28</v>
+      <c r="A50" s="8" t="s">
+        <v>62</v>
       </c>
-      <c r="B50" s="23">
-        <f>SUM(B3:B47)</f>
-        <v>73.180000000000007</v>
+      <c r="B50" s="9"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="26" t="s">
+        <v>61</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
     </row>
     <row r="51" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
-        <v>29</v>
+      <c r="A51" s="8" t="s">
+        <v>75</v>
       </c>
-      <c r="B51" s="23" t="e">
-        <f ca="1">MULTIPLY(B50,0.78)</f>
-        <v>#NAME?</v>
+      <c r="B51" s="9"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="26" t="s">
+        <v>76</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
     </row>
     <row r="52" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
@@ -2332,8 +2351,13 @@
       <c r="Z52" s="4"/>
     </row>
     <row r="53" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="7"/>
+      <c r="A53" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="23">
+        <f>SUM(B3:B49)</f>
+        <v>113.18</v>
+      </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -2360,8 +2384,13 @@
       <c r="Z53" s="4"/>
     </row>
     <row r="54" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="23" t="e">
+        <f ca="1">MULTIPLY(B53,0.78)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -29379,38 +29408,124 @@
       <c r="Y1018" s="4"/>
       <c r="Z1018" s="4"/>
     </row>
+    <row r="1019" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1019" s="4"/>
+      <c r="B1019" s="7"/>
+      <c r="C1019" s="4"/>
+      <c r="D1019" s="4"/>
+      <c r="E1019" s="4"/>
+      <c r="F1019" s="4"/>
+      <c r="G1019" s="4"/>
+      <c r="H1019" s="4"/>
+      <c r="I1019" s="4"/>
+      <c r="J1019" s="4"/>
+      <c r="K1019" s="4"/>
+      <c r="L1019" s="4"/>
+      <c r="M1019" s="4"/>
+      <c r="N1019" s="4"/>
+      <c r="O1019" s="4"/>
+      <c r="P1019" s="4"/>
+      <c r="Q1019" s="4"/>
+      <c r="R1019" s="4"/>
+      <c r="S1019" s="4"/>
+      <c r="T1019" s="4"/>
+      <c r="U1019" s="4"/>
+      <c r="V1019" s="4"/>
+      <c r="W1019" s="4"/>
+      <c r="X1019" s="4"/>
+      <c r="Y1019" s="4"/>
+      <c r="Z1019" s="4"/>
+    </row>
+    <row r="1020" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1020" s="4"/>
+      <c r="B1020" s="7"/>
+      <c r="C1020" s="4"/>
+      <c r="D1020" s="4"/>
+      <c r="E1020" s="4"/>
+      <c r="F1020" s="4"/>
+      <c r="G1020" s="4"/>
+      <c r="H1020" s="4"/>
+      <c r="I1020" s="4"/>
+      <c r="J1020" s="4"/>
+      <c r="K1020" s="4"/>
+      <c r="L1020" s="4"/>
+      <c r="M1020" s="4"/>
+      <c r="N1020" s="4"/>
+      <c r="O1020" s="4"/>
+      <c r="P1020" s="4"/>
+      <c r="Q1020" s="4"/>
+      <c r="R1020" s="4"/>
+      <c r="S1020" s="4"/>
+      <c r="T1020" s="4"/>
+      <c r="U1020" s="4"/>
+      <c r="V1020" s="4"/>
+      <c r="W1020" s="4"/>
+      <c r="X1020" s="4"/>
+      <c r="Y1020" s="4"/>
+      <c r="Z1020" s="4"/>
+    </row>
+    <row r="1021" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1021" s="4"/>
+      <c r="B1021" s="7"/>
+      <c r="C1021" s="4"/>
+      <c r="D1021" s="4"/>
+      <c r="E1021" s="4"/>
+      <c r="F1021" s="4"/>
+      <c r="G1021" s="4"/>
+      <c r="H1021" s="4"/>
+      <c r="I1021" s="4"/>
+      <c r="J1021" s="4"/>
+      <c r="K1021" s="4"/>
+      <c r="L1021" s="4"/>
+      <c r="M1021" s="4"/>
+      <c r="N1021" s="4"/>
+      <c r="O1021" s="4"/>
+      <c r="P1021" s="4"/>
+      <c r="Q1021" s="4"/>
+      <c r="R1021" s="4"/>
+      <c r="S1021" s="4"/>
+      <c r="T1021" s="4"/>
+      <c r="U1021" s="4"/>
+      <c r="V1021" s="4"/>
+      <c r="W1021" s="4"/>
+      <c r="X1021" s="4"/>
+      <c r="Y1021" s="4"/>
+      <c r="Z1021" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C9" r:id="rId2" display="https://www.aliexpress.us/item/2251832808824051.html?pdp_npi=4%40dis%21USD%21US%20%243.99%21US%20%243.99%21%21%213.99%213.99%21%402101e89317232276053941418d89ca%2112000027231341321%21sh01%21US%213164753953%21X&amp;spm=a2g0o.store_pc_home.productList_2004693608109.32995138803&amp;gatewayAdapt=glo2usa" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="C11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="C12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="E13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E25" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C31" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C32" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C38" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C42" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C43" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C44" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C46" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C47" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C19" r:id="rId16" xr:uid="{3A64B111-B7EF-4805-87C8-3A07EB35642D}"/>
-    <hyperlink ref="C39" r:id="rId17" display="https://www.keenovo.com/contact/us.html" xr:uid="{29A21294-763C-454A-B81E-469172251FD0}"/>
-    <hyperlink ref="C34" r:id="rId18" display="https://www.amazon.com/dp/B08BKJ1N6L?psc=1&amp;ref=ppx_yo2ov_dt_b_product_details" xr:uid="{F84F8F0A-5B4E-49F7-A617-6079AB5F4E50}"/>
-    <hyperlink ref="E24" r:id="rId19" display="https://www.amazon.com/dp/B0D6SP881V?ref=ppx_yo2ov_dt_b_product_details&amp;th=1" xr:uid="{37C67142-F1F8-4AE8-AA6A-4F20C28829B6}"/>
-    <hyperlink ref="C33" r:id="rId20" display="https://www.amazon.com/dp/B07S1GLM8R?psc=1&amp;ref=ppx_yo2ov_dt_b_product_details" xr:uid="{59FBC9AA-311D-4C7E-ACE3-D14ECE7354AE}"/>
-    <hyperlink ref="E14" r:id="rId21" display="https://www.amazon.com/dp/B0B6BWDQ67?ref=ppx_yo2ov_dt_b_product_details&amp;th=1" xr:uid="{6125E1D4-E991-4BCA-8A93-4855C5624898}"/>
-    <hyperlink ref="E15" r:id="rId22" display="https://www.amazon.com/dp/B09X2Z385R?ref=ppx_yo2ov_dt_b_product_details&amp;th=1" xr:uid="{AAE63F0D-39C6-461E-A57F-FB103305D9AA}"/>
-    <hyperlink ref="E44" r:id="rId23" display="https://www.amazon.com/dp/B09MYKL9MP?ref=ppx_yo2ov_dt_b_product_details&amp;th=1" xr:uid="{4AC6852C-7E7E-4C6F-9FCF-355E6DDA774F}"/>
-    <hyperlink ref="E23" r:id="rId24" display="https://www.amazon.com/dp/B09MCWTBCC?psc=1&amp;ref=ppx_yo2ov_dt_b_product_details" xr:uid="{79B66CFC-2CC4-4C8D-A696-06EA0A2CC3DA}"/>
-    <hyperlink ref="E8" r:id="rId25" display="https://www.amazon.com/dp/B08R93QQ8Z?ref=ppx_yo2ov_dt_b_product_details&amp;th=1" xr:uid="{22E1303D-91E2-4BD5-9196-65AE1A043DF6}"/>
-    <hyperlink ref="E35" r:id="rId26" display="https://www.amazon.com/dp/B099JMJNH2?psc=1&amp;ref=ppx_yo2ov_dt_b_product_details" xr:uid="{84E9F908-C719-4E68-A2F2-5CA1427A297C}"/>
-    <hyperlink ref="E48" r:id="rId27" display="https://www.amazon.com/dp/B07997NH2Q?psc=1&amp;ref=ppx_yo2ov_dt_b_product_details" xr:uid="{D94C90A5-D2CD-48A6-8BC8-C7763002E28C}"/>
-    <hyperlink ref="E26" r:id="rId28" display="https://www.amazon.com/dp/B07MW5P8JH?ref=ppx_yo2ov_dt_b_product_details&amp;th=1" xr:uid="{42BB53C1-601F-4DC6-BBFF-61A20A08DB54}"/>
-    <hyperlink ref="C27" r:id="rId29" display="https://boltdepot.com/Metric_socket_cap_Stainless_steel_18-8_(A-2)_2mm_x_0.4mm" xr:uid="{1F7AD799-C3F9-40BE-A975-471C8E6A3FE5}"/>
-    <hyperlink ref="C16" r:id="rId30" display="https://www.aliexpress.us/item/3256801304880853.html?gps-id=pcStoreLeaderboard&amp;scm=1007.22922.271278.0&amp;scm_id=1007.22922.271278.0&amp;scm-url=1007.22922.271278.0&amp;pvid=69e31eeb-97c9-493b-a189-303b08330b30&amp;_t=gps-id%3ApcStoreLeaderboard%2Cscm-url%3A1007.22922.271278.0%2Cpvid%3A69e31eeb-97c9-493b-a189-303b08330b30%2Ctpp_buckets%3A668%232846%238109%231935&amp;pdp_npi=4%40dis%21USD%2114.63%2114.63%21%21%2114.63%2114.63%21%402103200617230597828926349e5ed7%2112000016339431396%21rec%21US%213164753953%21XZ&amp;spm=a2g0o.store_pc_home.smartLeaderboard_2008666239829.1005001491195605&amp;gatewayAdapt=glo2usa" xr:uid="{AC3487F5-0461-4271-B1DC-8560C150D176}"/>
+    <hyperlink ref="C24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E27" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C33" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C34" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C40" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C44" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C45" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C46" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C49" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C19" r:id="rId15" xr:uid="{3A64B111-B7EF-4805-87C8-3A07EB35642D}"/>
+    <hyperlink ref="C41" r:id="rId16" display="https://www.keenovo.com/contact/us.html" xr:uid="{29A21294-763C-454A-B81E-469172251FD0}"/>
+    <hyperlink ref="C36" r:id="rId17" display="https://www.amazon.com/dp/B08BKJ1N6L?psc=1&amp;ref=ppx_yo2ov_dt_b_product_details" xr:uid="{F84F8F0A-5B4E-49F7-A617-6079AB5F4E50}"/>
+    <hyperlink ref="E25" r:id="rId18" display="https://www.amazon.com/dp/B0D6SP881V?ref=ppx_yo2ov_dt_b_product_details&amp;th=1" xr:uid="{37C67142-F1F8-4AE8-AA6A-4F20C28829B6}"/>
+    <hyperlink ref="C35" r:id="rId19" display="https://www.amazon.com/dp/B07S1GLM8R?psc=1&amp;ref=ppx_yo2ov_dt_b_product_details" xr:uid="{59FBC9AA-311D-4C7E-ACE3-D14ECE7354AE}"/>
+    <hyperlink ref="E14" r:id="rId20" display="https://www.amazon.com/dp/B0B6BWDQ67?ref=ppx_yo2ov_dt_b_product_details&amp;th=1" xr:uid="{6125E1D4-E991-4BCA-8A93-4855C5624898}"/>
+    <hyperlink ref="E15" r:id="rId21" display="https://www.amazon.com/dp/B09X2Z385R?ref=ppx_yo2ov_dt_b_product_details&amp;th=1" xr:uid="{AAE63F0D-39C6-461E-A57F-FB103305D9AA}"/>
+    <hyperlink ref="E46" r:id="rId22" display="https://www.amazon.com/dp/B09MYKL9MP?ref=ppx_yo2ov_dt_b_product_details&amp;th=1" xr:uid="{4AC6852C-7E7E-4C6F-9FCF-355E6DDA774F}"/>
+    <hyperlink ref="E24" r:id="rId23" display="https://www.amazon.com/dp/B09MCWTBCC?psc=1&amp;ref=ppx_yo2ov_dt_b_product_details" xr:uid="{79B66CFC-2CC4-4C8D-A696-06EA0A2CC3DA}"/>
+    <hyperlink ref="E8" r:id="rId24" display="https://www.amazon.com/dp/B08R93QQ8Z?ref=ppx_yo2ov_dt_b_product_details&amp;th=1" xr:uid="{22E1303D-91E2-4BD5-9196-65AE1A043DF6}"/>
+    <hyperlink ref="E37" r:id="rId25" display="https://www.amazon.com/dp/B099JMJNH2?psc=1&amp;ref=ppx_yo2ov_dt_b_product_details" xr:uid="{84E9F908-C719-4E68-A2F2-5CA1427A297C}"/>
+    <hyperlink ref="E50" r:id="rId26" display="https://www.amazon.com/dp/B07997NH2Q?psc=1&amp;ref=ppx_yo2ov_dt_b_product_details" xr:uid="{D94C90A5-D2CD-48A6-8BC8-C7763002E28C}"/>
+    <hyperlink ref="E28" r:id="rId27" display="https://www.amazon.com/dp/B07MW5P8JH?ref=ppx_yo2ov_dt_b_product_details&amp;th=1" xr:uid="{42BB53C1-601F-4DC6-BBFF-61A20A08DB54}"/>
+    <hyperlink ref="C29" r:id="rId28" display="https://boltdepot.com/Metric_socket_cap_Stainless_steel_18-8_(A-2)_2mm_x_0.4mm" xr:uid="{1F7AD799-C3F9-40BE-A975-471C8E6A3FE5}"/>
+    <hyperlink ref="C16" r:id="rId29" display="https://www.aliexpress.us/item/3256801304880853.html?gps-id=pcStoreLeaderboard&amp;scm=1007.22922.271278.0&amp;scm_id=1007.22922.271278.0&amp;scm-url=1007.22922.271278.0&amp;pvid=69e31eeb-97c9-493b-a189-303b08330b30&amp;_t=gps-id%3ApcStoreLeaderboard%2Cscm-url%3A1007.22922.271278.0%2Cpvid%3A69e31eeb-97c9-493b-a189-303b08330b30%2Ctpp_buckets%3A668%232846%238109%231935&amp;pdp_npi=4%40dis%21USD%2114.63%2114.63%21%21%2114.63%2114.63%21%402103200617230597828926349e5ed7%2112000016339431396%21rec%21US%213164753953%21XZ&amp;spm=a2g0o.store_pc_home.smartLeaderboard_2008666239829.1005001491195605&amp;gatewayAdapt=glo2usa" xr:uid="{AC3487F5-0461-4271-B1DC-8560C150D176}"/>
+    <hyperlink ref="E51" r:id="rId30" display="https://www.amazon.com/Noctua-Cooling-Bearing-NF-A4X10-FLX-5V/dp/B00NEMGCIA" xr:uid="{8A7A47F3-F9B9-434F-8DF8-283F80FA298E}"/>
+    <hyperlink ref="E3" r:id="rId31" display="https://www.amazon.com/MakerBeam-XL-Anodized-300x15x15mm-Pieces/dp/B06XJ4F9WW/ref=asc_df_B06XJ4F9WW?tag=bingshoppinga-20&amp;linkCode=df0&amp;hvadid=79852084166625&amp;hvnetw=o&amp;hvqmt=e&amp;hvbmt=be&amp;hvdev=c&amp;hvlocint=&amp;hvlocphy=&amp;hvtargid=pla-4583451672046415&amp;psc=1" xr:uid="{A5F373AC-C088-4C56-BBB1-B519B22139AD}"/>
+    <hyperlink ref="E4" r:id="rId32" display="https://www.amazon.com/MakerBeam-XL-Anodized-50x15x15mm-100x15x15mm/dp/B06XJ4FZ12/ref=sr_1_20?adgrpid=1341404752136090&amp;dib=eyJ2IjoiMSJ9.l4Aa0aj5u6PwHLs6k2yd7X39huIxMysk6UVQpD-QmsnGjHj071QN20LucGBJIEps.iHlTyuyb18n7nTe47u5RaoZBfJQ9z6w4PqPGGdqF3ik&amp;dib_tag=se&amp;hvadid=83838037696959&amp;hvbmt=be&amp;hvdev=c&amp;hvlocphy=99357&amp;hvnetw=o&amp;hvqmt=e&amp;hvtargid=kwd-83838146055982%3Aloc-190&amp;hydadcr=8952_13537789&amp;keywords=makerbeam+xl+100mm&amp;msclkid=2b608a3375bc14e59940ec8528c4519f&amp;qid=1723227531&amp;sr=8-20" xr:uid="{EFD962DF-D345-4710-A1E4-61DF3488EF3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Teeny Weeny BOM.xlsx
+++ b/Teeny Weeny BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\26-1_fea\Documents\Reilly_Projects\Teeny Weeny\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E27D29-EAF8-4A6A-844F-5C3A999DB959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6315DC42-5151-4CB4-A4CC-446B47C1CE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Amazon</t>
   </si>
@@ -307,6 +307,18 @@
   </si>
   <si>
     <t>M2.5 standoffs and fasteners for electornics and effector</t>
+  </si>
+  <si>
+    <t>High Speed Turbine Fan with Nidec Brushless Motor and Built-in Drive for Sweeper and Vacuum Cleaner - AliExpress 1420</t>
+  </si>
+  <si>
+    <t>CPAP Driver Board (IF using CPAP toolhead)</t>
+  </si>
+  <si>
+    <t>Roborock Blower Fan</t>
+  </si>
+  <si>
+    <t>Ldee5bgs173tw01|roborock S50 S51 S52 S55 Motor Replacement - Xiaomi Mi Robot Sdjqr01rr Parts (aliexpress.us)</t>
   </si>
 </sst>
 </file>
@@ -710,10 +722,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1021"/>
+  <dimension ref="A1:Z1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2323,74 +2335,72 @@
       <c r="Z51" s="8"/>
     </row>
     <row r="52" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
+      <c r="A52" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
     </row>
     <row r="53" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="22" t="s">
-        <v>25</v>
+      <c r="A53" s="8" t="s">
+        <v>86</v>
       </c>
-      <c r="B53" s="23">
-        <f>SUM(B3:B49)</f>
-        <v>113.18</v>
+      <c r="B53" s="9"/>
+      <c r="C53" s="26" t="s">
+        <v>87</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
     </row>
     <row r="54" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="23" t="e">
-        <f ca="1">MULTIPLY(B53,0.78)</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="A54" s="4"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -2417,8 +2427,13 @@
       <c r="Z54" s="4"/>
     </row>
     <row r="55" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="7"/>
+      <c r="A55" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="23">
+        <f>SUM(B3:B49)</f>
+        <v>113.18</v>
+      </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -2445,8 +2460,13 @@
       <c r="Z55" s="4"/>
     </row>
     <row r="56" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="7"/>
+      <c r="A56" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="23" t="e">
+        <f ca="1">MULTIPLY(B55,0.78)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -29491,6 +29511,62 @@
       <c r="X1021" s="4"/>
       <c r="Y1021" s="4"/>
       <c r="Z1021" s="4"/>
+    </row>
+    <row r="1022" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1022" s="4"/>
+      <c r="B1022" s="7"/>
+      <c r="C1022" s="4"/>
+      <c r="D1022" s="4"/>
+      <c r="E1022" s="4"/>
+      <c r="F1022" s="4"/>
+      <c r="G1022" s="4"/>
+      <c r="H1022" s="4"/>
+      <c r="I1022" s="4"/>
+      <c r="J1022" s="4"/>
+      <c r="K1022" s="4"/>
+      <c r="L1022" s="4"/>
+      <c r="M1022" s="4"/>
+      <c r="N1022" s="4"/>
+      <c r="O1022" s="4"/>
+      <c r="P1022" s="4"/>
+      <c r="Q1022" s="4"/>
+      <c r="R1022" s="4"/>
+      <c r="S1022" s="4"/>
+      <c r="T1022" s="4"/>
+      <c r="U1022" s="4"/>
+      <c r="V1022" s="4"/>
+      <c r="W1022" s="4"/>
+      <c r="X1022" s="4"/>
+      <c r="Y1022" s="4"/>
+      <c r="Z1022" s="4"/>
+    </row>
+    <row r="1023" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1023" s="4"/>
+      <c r="B1023" s="7"/>
+      <c r="C1023" s="4"/>
+      <c r="D1023" s="4"/>
+      <c r="E1023" s="4"/>
+      <c r="F1023" s="4"/>
+      <c r="G1023" s="4"/>
+      <c r="H1023" s="4"/>
+      <c r="I1023" s="4"/>
+      <c r="J1023" s="4"/>
+      <c r="K1023" s="4"/>
+      <c r="L1023" s="4"/>
+      <c r="M1023" s="4"/>
+      <c r="N1023" s="4"/>
+      <c r="O1023" s="4"/>
+      <c r="P1023" s="4"/>
+      <c r="Q1023" s="4"/>
+      <c r="R1023" s="4"/>
+      <c r="S1023" s="4"/>
+      <c r="T1023" s="4"/>
+      <c r="U1023" s="4"/>
+      <c r="V1023" s="4"/>
+      <c r="W1023" s="4"/>
+      <c r="X1023" s="4"/>
+      <c r="Y1023" s="4"/>
+      <c r="Z1023" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -29526,6 +29602,8 @@
     <hyperlink ref="E51" r:id="rId30" display="https://www.amazon.com/Noctua-Cooling-Bearing-NF-A4X10-FLX-5V/dp/B00NEMGCIA" xr:uid="{8A7A47F3-F9B9-434F-8DF8-283F80FA298E}"/>
     <hyperlink ref="E3" r:id="rId31" display="https://www.amazon.com/MakerBeam-XL-Anodized-300x15x15mm-Pieces/dp/B06XJ4F9WW/ref=asc_df_B06XJ4F9WW?tag=bingshoppinga-20&amp;linkCode=df0&amp;hvadid=79852084166625&amp;hvnetw=o&amp;hvqmt=e&amp;hvbmt=be&amp;hvdev=c&amp;hvlocint=&amp;hvlocphy=&amp;hvtargid=pla-4583451672046415&amp;psc=1" xr:uid="{A5F373AC-C088-4C56-BBB1-B519B22139AD}"/>
     <hyperlink ref="E4" r:id="rId32" display="https://www.amazon.com/MakerBeam-XL-Anodized-50x15x15mm-100x15x15mm/dp/B06XJ4FZ12/ref=sr_1_20?adgrpid=1341404752136090&amp;dib=eyJ2IjoiMSJ9.l4Aa0aj5u6PwHLs6k2yd7X39huIxMysk6UVQpD-QmsnGjHj071QN20LucGBJIEps.iHlTyuyb18n7nTe47u5RaoZBfJQ9z6w4PqPGGdqF3ik&amp;dib_tag=se&amp;hvadid=83838037696959&amp;hvbmt=be&amp;hvdev=c&amp;hvlocphy=99357&amp;hvnetw=o&amp;hvqmt=e&amp;hvtargid=kwd-83838146055982%3Aloc-190&amp;hydadcr=8952_13537789&amp;keywords=makerbeam+xl+100mm&amp;msclkid=2b608a3375bc14e59940ec8528c4519f&amp;qid=1723227531&amp;sr=8-20" xr:uid="{EFD962DF-D345-4710-A1E4-61DF3488EF3F}"/>
+    <hyperlink ref="C52" r:id="rId33" display="https://www.aliexpress.us/item/3256805751725080.html?spm=a2g0o.order_list.order_list_main.22.5f9f1802hETnJh&amp;gatewayAdapt=glo2usa" xr:uid="{4C435BF2-6326-4A85-9279-3776C0044C57}"/>
+    <hyperlink ref="C53" r:id="rId34" display="https://www.aliexpress.us/item/3256804036608448.html?spm=a2g0o.order_list.order_list_main.81.6bd51802S5XSF7&amp;gatewayAdapt=glo2usa" xr:uid="{50126C93-7E4F-4F1F-B63C-767E3AFE1CDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
